--- a/public/assets/uploadcampaign.xlsx
+++ b/public/assets/uploadcampaign.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\document kantor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\oneservices\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABC4BB7-B389-4D6A-8F21-2C7C079A00F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6261CA5-1AD3-47C8-BDBC-54A3E69954BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A4AC2085-0E05-423C-887B-FC965699B821}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>No hp wakif</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Indonesia Belajar</t>
-  </si>
-  <si>
-    <t>extension</t>
   </si>
   <si>
     <t>089663085777</t>
@@ -396,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB6A71B-1229-483E-BD8B-C005C17AEF5F}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +408,7 @@
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,13 +418,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -435,20 +429,17 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>8045</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
   </sheetData>
